--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ltbr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H2">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I2">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J2">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N2">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O2">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P2">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q2">
-        <v>9.800688965086668</v>
+        <v>1.448902327248333</v>
       </c>
       <c r="R2">
-        <v>88.20620068578</v>
+        <v>13.040120945235</v>
       </c>
       <c r="S2">
-        <v>0.02735406486971016</v>
+        <v>0.003561041848790745</v>
       </c>
       <c r="T2">
-        <v>0.02871732268553684</v>
+        <v>0.003677881277565197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H3">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I3">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J3">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N3">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O3">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P3">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q3">
-        <v>20.89397361723778</v>
+        <v>3.291813953099777</v>
       </c>
       <c r="R3">
-        <v>188.04576255514</v>
+        <v>29.626325577898</v>
       </c>
       <c r="S3">
-        <v>0.05831580940359746</v>
+        <v>0.008090460636973267</v>
       </c>
       <c r="T3">
-        <v>0.06122212271879857</v>
+        <v>0.008355912389433616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H4">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I4">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J4">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N4">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O4">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P4">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q4">
-        <v>11.67166072558445</v>
+        <v>2.844870815208889</v>
       </c>
       <c r="R4">
-        <v>105.04494653026</v>
+        <v>25.60383733688</v>
       </c>
       <c r="S4">
-        <v>0.03257601233568604</v>
+        <v>0.006991985475378389</v>
       </c>
       <c r="T4">
-        <v>0.03419951888349225</v>
+        <v>0.007221395750132642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H5">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I5">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J5">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N5">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O5">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P5">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q5">
-        <v>9.226162885761669</v>
+        <v>0.848781262996</v>
       </c>
       <c r="R5">
-        <v>55.35697731457001</v>
+        <v>5.092687577976</v>
       </c>
       <c r="S5">
-        <v>0.02575054253580276</v>
+        <v>0.002086093410960594</v>
       </c>
       <c r="T5">
-        <v>0.01802258988686643</v>
+        <v>0.00143635939990043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H6">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I6">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J6">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N6">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O6">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P6">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q6">
-        <v>13.19122374581112</v>
+        <v>2.527770970674333</v>
       </c>
       <c r="R6">
-        <v>118.7210137123</v>
+        <v>22.749938736069</v>
       </c>
       <c r="S6">
-        <v>0.03681716574612134</v>
+        <v>0.006212632861060273</v>
       </c>
       <c r="T6">
-        <v>0.03865204071622366</v>
+        <v>0.006416472216365286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N7">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O7">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P7">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q7">
-        <v>0.03465962528266666</v>
+        <v>0.03252311439333334</v>
       </c>
       <c r="R7">
-        <v>0.311936627544</v>
+        <v>0.29270802954</v>
       </c>
       <c r="S7">
-        <v>9.67362235164583E-05</v>
+        <v>7.993373275037773E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001015573136692567</v>
+        <v>8.255639546284636E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N8">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O8">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P8">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q8">
-        <v>0.07389044778577777</v>
+        <v>0.07389044778577776</v>
       </c>
       <c r="R8">
-        <v>0.665014030072</v>
+        <v>0.6650140300719999</v>
       </c>
       <c r="S8">
-        <v>0.000206230817974563</v>
+        <v>0.0001816043578939905</v>
       </c>
       <c r="T8">
-        <v>0.0002165088434090743</v>
+        <v>0.0001875628808039333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N9">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O9">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P9">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q9">
-        <v>0.04127621931644445</v>
+        <v>0.06385803736888887</v>
       </c>
       <c r="R9">
-        <v>0.371485973848</v>
+        <v>0.5747223363199999</v>
       </c>
       <c r="S9">
-        <v>0.0001152033683326283</v>
+        <v>0.0001569471862772992</v>
       </c>
       <c r="T9">
-        <v>0.0001209448145504781</v>
+        <v>0.0001620966959913241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.010756</v>
       </c>
       <c r="I10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N10">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O10">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P10">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q10">
-        <v>0.03262784377266667</v>
+        <v>0.019052360944</v>
       </c>
       <c r="R10">
-        <v>0.195767062636</v>
+        <v>0.114314165664</v>
       </c>
       <c r="S10">
-        <v>9.106545042860671E-05</v>
+        <v>4.682596843411783E-05</v>
       </c>
       <c r="T10">
-        <v>6.373594900595283E-05</v>
+        <v>3.224156673253425E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.010756</v>
       </c>
       <c r="I11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N11">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O11">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P11">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q11">
-        <v>0.04665007467111112</v>
+        <v>0.05674018385733333</v>
       </c>
       <c r="R11">
-        <v>0.41985067204</v>
+        <v>0.510661654716</v>
       </c>
       <c r="S11">
-        <v>0.0001302019861334424</v>
+        <v>0.0001394532712275878</v>
       </c>
       <c r="T11">
-        <v>0.0001366909257509368</v>
+        <v>0.0001440287975041164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H12">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I12">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J12">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N12">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O12">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P12">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q12">
-        <v>16.090557030434</v>
+        <v>21.06536875001667</v>
       </c>
       <c r="R12">
-        <v>144.815013273906</v>
+        <v>189.58831875015</v>
       </c>
       <c r="S12">
-        <v>0.04490930610778446</v>
+        <v>0.05177344136197322</v>
       </c>
       <c r="T12">
-        <v>0.04714747300716123</v>
+        <v>0.05347215189986671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H13">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I13">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J13">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N13">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O13">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P13">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q13">
-        <v>34.30326942097533</v>
+        <v>47.85917827200221</v>
       </c>
       <c r="R13">
-        <v>308.729424788778</v>
+        <v>430.7326044480199</v>
       </c>
       <c r="S13">
-        <v>0.09574162187241766</v>
+        <v>0.1176259665473821</v>
       </c>
       <c r="T13">
-        <v>0.1005131435800387</v>
+        <v>0.1214853288699861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H14">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I14">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J14">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N14">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O14">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P14">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q14">
-        <v>19.16227759231133</v>
+        <v>41.3611405279111</v>
       </c>
       <c r="R14">
-        <v>172.460498330802</v>
+        <v>372.2502647511999</v>
       </c>
       <c r="S14">
-        <v>0.05348258537524586</v>
+        <v>0.1016554046215994</v>
       </c>
       <c r="T14">
-        <v>0.05614802295721772</v>
+        <v>0.1049907654267123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H15">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I15">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J15">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N15">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O15">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P15">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q15">
-        <v>15.1473126648815</v>
+        <v>12.34030062404</v>
       </c>
       <c r="R15">
-        <v>90.883875989289</v>
+        <v>74.04180374424</v>
       </c>
       <c r="S15">
-        <v>0.04227667817160309</v>
+        <v>0.0303293922043188</v>
       </c>
       <c r="T15">
-        <v>0.02958909434263257</v>
+        <v>0.02088300905273463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H16">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I16">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J16">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.01136333333334</v>
+        <v>15.825637</v>
       </c>
       <c r="N16">
-        <v>39.03409000000001</v>
+        <v>47.476911</v>
       </c>
       <c r="O16">
-        <v>0.2036194555411202</v>
+        <v>0.2305910274224278</v>
       </c>
       <c r="P16">
-        <v>0.2137673372377884</v>
+        <v>0.2367001341949739</v>
       </c>
       <c r="Q16">
-        <v>21.65706296152333</v>
+        <v>36.75087451475667</v>
       </c>
       <c r="R16">
-        <v>194.91356665371</v>
+        <v>330.75787063281</v>
       </c>
       <c r="S16">
-        <v>0.06044561838940757</v>
+        <v>0.09032451647396321</v>
       </c>
       <c r="T16">
-        <v>0.06345807602940842</v>
+        <v>0.09328810560244544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H17">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I17">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J17">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.667057999999999</v>
+        <v>9.071155000000001</v>
       </c>
       <c r="N17">
-        <v>29.001174</v>
+        <v>27.213465</v>
       </c>
       <c r="O17">
-        <v>0.1512832311431697</v>
+        <v>0.1321733179750106</v>
       </c>
       <c r="P17">
-        <v>0.158822807006639</v>
+        <v>0.135675019324872</v>
       </c>
       <c r="Q17">
-        <v>28.27736914401334</v>
+        <v>0.9868055966750001</v>
       </c>
       <c r="R17">
-        <v>254.49632229612</v>
+        <v>5.920833580050001</v>
       </c>
       <c r="S17">
-        <v>0.07892312394215863</v>
+        <v>0.002425322922252652</v>
       </c>
       <c r="T17">
-        <v>0.08285645400027168</v>
+        <v>0.001669932592120815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H18">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I18">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J18">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>20.60908733333333</v>
       </c>
       <c r="N18">
-        <v>61.827262</v>
+        <v>61.82726199999999</v>
       </c>
       <c r="O18">
-        <v>0.3225189424433408</v>
+        <v>0.3002893736556623</v>
       </c>
       <c r="P18">
-        <v>0.3385924756140875</v>
+        <v>0.3082450164524775</v>
       </c>
       <c r="Q18">
-        <v>60.28419093439557</v>
+        <v>2.241959565556666</v>
       </c>
       <c r="R18">
-        <v>542.5577184095602</v>
+        <v>13.45175739334</v>
       </c>
       <c r="S18">
-        <v>0.1682552803493512</v>
+        <v>0.005510179455233662</v>
       </c>
       <c r="T18">
-        <v>0.1766407004718411</v>
+        <v>0.003793980659772385</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H19">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I19">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J19">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.51251933333334</v>
+        <v>17.81090666666666</v>
       </c>
       <c r="N19">
-        <v>34.537558</v>
+        <v>53.43272</v>
       </c>
       <c r="O19">
-        <v>0.1801635123472805</v>
+        <v>0.2595178486396241</v>
       </c>
       <c r="P19">
-        <v>0.1891424088112641</v>
+        <v>0.2663933210482557</v>
       </c>
       <c r="Q19">
-        <v>33.6755773024489</v>
+        <v>1.937559481733333</v>
       </c>
       <c r="R19">
-        <v>303.0801957220401</v>
+        <v>11.6253568904</v>
       </c>
       <c r="S19">
-        <v>0.09398971126801602</v>
+        <v>0.004762039696683524</v>
       </c>
       <c r="T19">
-        <v>0.09867392215600361</v>
+        <v>0.003278856279921196</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H20">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I20">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J20">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.100365500000001</v>
+        <v>5.313972</v>
       </c>
       <c r="N20">
-        <v>18.200731</v>
+        <v>10.627944</v>
       </c>
       <c r="O20">
-        <v>0.1424148585250887</v>
+        <v>0.07742843230727542</v>
       </c>
       <c r="P20">
-        <v>0.09967497133022106</v>
+        <v>0.05298650897942091</v>
       </c>
       <c r="Q20">
-        <v>26.61972180046334</v>
+        <v>0.57808044402</v>
       </c>
       <c r="R20">
-        <v>159.7183308027801</v>
+        <v>2.31232177608</v>
       </c>
       <c r="S20">
-        <v>0.07429657236725427</v>
+        <v>0.001420778070687665</v>
       </c>
       <c r="T20">
-        <v>0.0519995511517161</v>
+        <v>0.0006521753136851502</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.108785</v>
+      </c>
+      <c r="H21">
+        <v>0.21757</v>
+      </c>
+      <c r="I21">
+        <v>0.01834956524819326</v>
+      </c>
+      <c r="J21">
+        <v>0.01230832765258123</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.825637</v>
+      </c>
+      <c r="N21">
+        <v>47.476911</v>
+      </c>
+      <c r="O21">
+        <v>0.2305910274224278</v>
+      </c>
+      <c r="P21">
+        <v>0.2367001341949739</v>
+      </c>
+      <c r="Q21">
+        <v>1.721591921045</v>
+      </c>
+      <c r="R21">
+        <v>10.32955152627</v>
+      </c>
+      <c r="S21">
+        <v>0.004231245103335759</v>
+      </c>
+      <c r="T21">
+        <v>0.002913382807081686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H22">
+        <v>10.002435</v>
+      </c>
+      <c r="I22">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J22">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.071155000000001</v>
+      </c>
+      <c r="N22">
+        <v>27.213465</v>
+      </c>
+      <c r="O22">
+        <v>0.1321733179750106</v>
+      </c>
+      <c r="P22">
+        <v>0.135675019324872</v>
+      </c>
+      <c r="Q22">
+        <v>30.244546087475</v>
+      </c>
+      <c r="R22">
+        <v>272.200914787275</v>
+      </c>
+      <c r="S22">
+        <v>0.07433357810924361</v>
+      </c>
+      <c r="T22">
+        <v>0.0767724971598564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H23">
+        <v>10.002435</v>
+      </c>
+      <c r="I23">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J23">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>20.60908733333333</v>
+      </c>
+      <c r="N23">
+        <v>61.82726199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.3002893736556623</v>
+      </c>
+      <c r="P23">
+        <v>0.3082450164524775</v>
+      </c>
+      <c r="Q23">
+        <v>68.71368548699665</v>
+      </c>
+      <c r="R23">
+        <v>618.4231693829698</v>
+      </c>
+      <c r="S23">
+        <v>0.1688811626581793</v>
+      </c>
+      <c r="T23">
+        <v>0.1744222316524815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H24">
+        <v>10.002435</v>
+      </c>
+      <c r="I24">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J24">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.81090666666666</v>
+      </c>
+      <c r="N24">
+        <v>53.43272</v>
+      </c>
+      <c r="O24">
+        <v>0.2595178486396241</v>
+      </c>
+      <c r="P24">
+        <v>0.2663933210482557</v>
+      </c>
+      <c r="Q24">
+        <v>59.38414540813331</v>
+      </c>
+      <c r="R24">
+        <v>534.4573086731999</v>
+      </c>
+      <c r="S24">
+        <v>0.1459514716596855</v>
+      </c>
+      <c r="T24">
+        <v>0.1507402068954983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.925126666666667</v>
-      </c>
-      <c r="H21">
-        <v>8.775380000000002</v>
-      </c>
-      <c r="I21">
-        <v>0.5216911573462379</v>
-      </c>
-      <c r="J21">
-        <v>0.5216911573462378</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.01136333333334</v>
-      </c>
-      <c r="N21">
-        <v>39.03409000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.2036194555411202</v>
-      </c>
-      <c r="P21">
-        <v>0.2137673372377884</v>
-      </c>
-      <c r="Q21">
-        <v>38.05988585602223</v>
-      </c>
-      <c r="R21">
-        <v>342.5389727042001</v>
-      </c>
-      <c r="S21">
-        <v>0.1062264694194578</v>
-      </c>
-      <c r="T21">
-        <v>0.1115205295664053</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H25">
+        <v>10.002435</v>
+      </c>
+      <c r="I25">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J25">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.313972</v>
+      </c>
+      <c r="N25">
+        <v>10.627944</v>
+      </c>
+      <c r="O25">
+        <v>0.07742843230727542</v>
+      </c>
+      <c r="P25">
+        <v>0.05298650897942091</v>
+      </c>
+      <c r="Q25">
+        <v>17.71755317394</v>
+      </c>
+      <c r="R25">
+        <v>106.30531904364</v>
+      </c>
+      <c r="S25">
+        <v>0.04354534265287424</v>
+      </c>
+      <c r="T25">
+        <v>0.02998272364636818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H26">
+        <v>10.002435</v>
+      </c>
+      <c r="I26">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J26">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.825637</v>
+      </c>
+      <c r="N26">
+        <v>47.476911</v>
+      </c>
+      <c r="O26">
+        <v>0.2305910274224278</v>
+      </c>
+      <c r="P26">
+        <v>0.2367001341949739</v>
+      </c>
+      <c r="Q26">
+        <v>52.764968475365</v>
+      </c>
+      <c r="R26">
+        <v>474.8847162782849</v>
+      </c>
+      <c r="S26">
+        <v>0.1296831797128409</v>
+      </c>
+      <c r="T26">
+        <v>0.1339381447715774</v>
       </c>
     </row>
   </sheetData>
